--- a/Excel_output.xlsx
+++ b/Excel_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,459 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stop-and-search</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-10-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hertfordshire,humberside,kent,lancashire,leicestershire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-08-01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2021-06-01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-05-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-10-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-08-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2019-12-01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2019-10-01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2019-09-01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2019-06-01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019-05-01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019-04-01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2019-03-01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019-02-01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2018-12-01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2018-11-01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>avon-and-somerset,bedfordshire,btp,cambridgeshire,cheshire,city-of-london,cleveland,cumbria,derbyshire,devon-and-cornwall,dorset,durham,dyfed-powys,essex,gloucestershire,greater-manchester,gwent,hampshire,hertfordshire,humberside,kent,lancashire,leicestershire,lincolnshire,merseyside,metropolitan,norfolk,north-wales,north-yorkshire,northamptonshire,northumbria,nottinghamshire,south-wales,south-yorkshire,staffordshire,suffolk,surrey,sussex,thames-valley,warwickshire,west-mercia,west-midlands,west-yorkshire,wiltshire</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>